--- a/data/image_coords_gen.xlsx
+++ b/data/image_coords_gen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\workspace\w241\w241-team-mturk\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{06B4C0EE-453A-4AE2-ADCB-677A6942148F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{13F06387-D1A3-45EA-9807-6C6C16B2E37A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17556" yWindow="4560" windowWidth="24336" windowHeight="16740"/>
   </bookViews>
@@ -967,7 +967,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E21"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
